--- a/biology/Botanique/Aechmea_purpureorosea/Aechmea_purpureorosea.xlsx
+++ b/biology/Botanique/Aechmea_purpureorosea/Aechmea_purpureorosea.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aechmea purpureorosea est une espèce de plantes à fleurs de la famille des Bromeliaceae, endémique du Brésil.
 </t>
@@ -511,15 +523,17 @@
           <t>Synonymes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Aechmea suaveolens Knowles &amp; Westc.[2] ;
-Aechmea suaveolens var. longifolia Wittm.[2] ;
-Billbergia albo-rosea Lem.[2] ;
-Billbergia purpureorosea Hook.[2] ;
-Bromelia alborosea Lem.[2] ;
-Hoplophytum purpureoroseum Beer[2] ;
-Hoplophytum suaveolens (Knowles &amp; Westc.) Beer[2] ;</t>
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Aechmea suaveolens Knowles &amp; Westc. ;
+Aechmea suaveolens var. longifolia Wittm. ;
+Billbergia albo-rosea Lem. ;
+Billbergia purpureorosea Hook. ;
+Bromelia alborosea Lem. ;
+Hoplophytum purpureoroseum Beer ;
+Hoplophytum suaveolens (Knowles &amp; Westc.) Beer ;</t>
         </is>
       </c>
     </row>
